--- a/biology/Zoologie/Cryphoeca_exlineae/Cryphoeca_exlineae.xlsx
+++ b/biology/Zoologie/Cryphoeca_exlineae/Cryphoeca_exlineae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryphoeca exlineae est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryphoeca exlineae est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Washington et en Alaska et au Canada en Colombie-Britannique, en Alberta et au Yukon[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Washington et en Alaska et au Canada en Colombie-Britannique, en Alberta et au Yukon,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,7 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harriet Exline Lloyd[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harriet Exline Lloyd.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roth, 1988 : American Agelenidae and some misidentified spiders (Clubionidae, Oonopidae and Sparassidae) of E. Simon in the Muséum national d'Histoire naturelle. Bulletin du Muséum National d'Histoire Naturelle de Paris A, sér. 4, vol. 10, p. 25-37.</t>
         </is>
